--- a/data/results/daily_model/daily_model_results_(-0.4, 0.4, 0.4).xlsx
+++ b/data/results/daily_model/daily_model_results_(-0.4, 0.4, 0.4).xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,6 +445,31 @@
           <t>Accuracy (%)</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Market threshold</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Market min</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Market max</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -453,7 +478,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>59.04645476772616</v>
+        <v>59.29095354523227</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.05450546436368681</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-15.55441</v>
+      </c>
+      <c r="E2" t="n">
+        <v>15.06418</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -463,7 +503,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>57.3960880195599</v>
+        <v>33.92420537897311</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.009583939973006913</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-19.35264</v>
+      </c>
+      <c r="E3" t="n">
+        <v>13.70093</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5.898123324396782</v>
+      </c>
+      <c r="G3" t="n">
+        <v>23.15789473684211</v>
       </c>
     </row>
     <row r="4">
@@ -473,7 +528,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90.83129584352079</v>
+        <v>89.24205378973105</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.04158117063764853</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-18.75314</v>
+      </c>
+      <c r="E4" t="n">
+        <v>23.33066</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -483,7 +553,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>87.34718826405869</v>
+        <v>77.93398533007336</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.02983403801513819</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-12.78028</v>
+      </c>
+      <c r="E5" t="n">
+        <v>12.42348</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4.761904761904762</v>
       </c>
     </row>
     <row r="6">
@@ -493,7 +578,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>89.54767726161369</v>
+        <v>91.0757946210269</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.08368817696170747</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-16.47904</v>
+      </c>
+      <c r="E6" t="n">
+        <v>14.94325</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -555,13 +655,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>963</v>
+        <v>967</v>
       </c>
       <c r="D3" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -623,13 +723,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C2" t="n">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -639,13 +739,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13</v>
+        <v>253</v>
       </c>
       <c r="C3" t="n">
-        <v>932</v>
+        <v>451</v>
       </c>
       <c r="D3" t="n">
-        <v>12</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4">
@@ -655,13 +755,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>98</v>
       </c>
       <c r="C4" t="n">
-        <v>317</v>
+        <v>149</v>
       </c>
       <c r="D4" t="n">
-        <v>7</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -723,13 +823,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C3" t="n">
-        <v>1485</v>
+        <v>1459</v>
       </c>
       <c r="D3" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4">
@@ -739,10 +839,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -791,10 +891,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -807,13 +907,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="C3" t="n">
-        <v>1429</v>
+        <v>1271</v>
       </c>
       <c r="D3" t="n">
-        <v>24</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4">
@@ -823,13 +923,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -875,10 +975,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -891,13 +991,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
-        <v>1464</v>
+        <v>1490</v>
       </c>
       <c r="D3" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -907,10 +1007,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>

--- a/data/results/daily_model/daily_model_results_(-0.4, 0.4, 0.4).xlsx
+++ b/data/results/daily_model/daily_model_results_(-0.4, 0.4, 0.4).xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,16 +460,6 @@
           <t>Market max</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Recall</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Precision</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -478,7 +468,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>59.29095354523227</v>
+        <v>86.76207513416816</v>
       </c>
       <c r="C2" t="n">
         <v>0.05450546436368681</v>
@@ -489,12 +479,6 @@
       <c r="E2" t="n">
         <v>15.06418</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -503,7 +487,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>33.92420537897311</v>
+        <v>40.18826937002172</v>
       </c>
       <c r="C3" t="n">
         <v>0.009583939973006913</v>
@@ -514,12 +498,6 @@
       <c r="E3" t="n">
         <v>13.70093</v>
       </c>
-      <c r="F3" t="n">
-        <v>5.898123324396782</v>
-      </c>
-      <c r="G3" t="n">
-        <v>23.15789473684211</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -528,7 +506,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89.24205378973105</v>
+        <v>91.307066916823</v>
       </c>
       <c r="C4" t="n">
         <v>0.04158117063764853</v>
@@ -539,12 +517,6 @@
       <c r="E4" t="n">
         <v>23.33066</v>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -553,7 +525,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>77.93398533007336</v>
+        <v>80.95238095238095</v>
       </c>
       <c r="C5" t="n">
         <v>0.02983403801513819</v>
@@ -564,12 +536,6 @@
       <c r="E5" t="n">
         <v>12.42348</v>
       </c>
-      <c r="F5" t="n">
-        <v>0.9090909090909091</v>
-      </c>
-      <c r="G5" t="n">
-        <v>4.761904761904762</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -578,7 +544,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>91.0757946210269</v>
+        <v>94.30379746835443</v>
       </c>
       <c r="C6" t="n">
         <v>0.08368817696170747</v>
@@ -588,12 +554,6 @@
       </c>
       <c r="E6" t="n">
         <v>14.94325</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
